--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AVERAGE_10_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>-0.9202615158156533</v>
       </c>
-      <c r="BA2">
-        <v>-0.9202615158156533</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,16 +845,13 @@
       <c r="AZ3">
         <v>0.8502338137106733</v>
       </c>
-      <c r="BA3">
-        <v>0.8502338137106733</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
       <c r="B4">
-        <v>0.85</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C4">
         <v>-4.584240009800993</v>
@@ -1012,16 +1003,13 @@
       <c r="AZ4">
         <v>-4.584240009800993</v>
       </c>
-      <c r="BA4">
-        <v>-4.584240009800993</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
       <c r="B5">
-        <v>0.8070526521480588</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C5">
         <v>0.1885278214198252</v>
@@ -1173,19 +1161,16 @@
       <c r="AZ5">
         <v>0.1885278214198252</v>
       </c>
-      <c r="BA5">
-        <v>0.1885278214198252</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
       <c r="B6">
-        <v>0.8077926562006326</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C6">
-        <v>0.6772526392290388</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D6">
         <v>-0.0225265157453407</v>
@@ -1334,19 +1319,16 @@
       <c r="AZ6">
         <v>-0.0225265157453407</v>
       </c>
-      <c r="BA6">
-        <v>-0.0225265157453407</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>0.4789635212487423</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C7">
-        <v>0.7444112022064786</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D7">
         <v>-0.5310904011974884</v>
@@ -1495,22 +1477,19 @@
       <c r="AZ7">
         <v>-0.5310904011974884</v>
       </c>
-      <c r="BA7">
-        <v>-0.5310904011974884</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
       <c r="B8">
-        <v>0.4789635212487423</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C8">
-        <v>0.8555642925598477</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D8">
-        <v>-0.2077193692562389</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E8">
         <v>2.326978350057175</v>
@@ -1656,22 +1635,19 @@
       <c r="AZ8">
         <v>2.326978350057175</v>
       </c>
-      <c r="BA8">
-        <v>2.326978350057175</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
       <c r="B9">
-        <v>0.4789635212487423</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C9">
-        <v>0.7667663204885145</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D9">
-        <v>0.0248515810713883</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E9">
         <v>-0.1754120007267943</v>
@@ -1817,25 +1793,22 @@
       <c r="AZ9">
         <v>-0.1754120007267943</v>
       </c>
-      <c r="BA9">
-        <v>-0.1754120007267943</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
       <c r="B10">
-        <v>0.4789635212487423</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C10">
-        <v>0.7226490915834205</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D10">
-        <v>0.1689339804100456</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E10">
-        <v>-0.5187716927080714</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F10">
         <v>-0.2446904712575417</v>
@@ -1978,25 +1951,22 @@
       <c r="AZ10">
         <v>-0.2446904712575417</v>
       </c>
-      <c r="BA10">
-        <v>-0.2446904712575417</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
       <c r="B11">
-        <v>0.4789635212487423</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C11">
-        <v>-0.07767737160209423</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D11">
-        <v>-0.5592545128004203</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E11">
-        <v>-0.02547741087713007</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F11">
         <v>-0.4827621923091812</v>
@@ -2139,28 +2109,25 @@
       <c r="AZ11">
         <v>-0.4827621923091812</v>
       </c>
-      <c r="BA11">
-        <v>-0.4827621923091812</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
       <c r="B12">
-        <v>0.4789635212487423</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C12">
-        <v>-0.07767737160209423</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D12">
-        <v>-0.5592545128004203</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E12">
-        <v>0.4311871488147432</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F12">
-        <v>-0.2053068750136759</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G12">
         <v>4.256325692699008</v>
@@ -2300,28 +2267,25 @@
       <c r="AZ12">
         <v>4.256325692699008</v>
       </c>
-      <c r="BA12">
-        <v>4.256325692699008</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
       <c r="B13">
-        <v>0.4789635212487423</v>
+        <v>-0.03501385105249</v>
       </c>
       <c r="C13">
-        <v>-0.07767737160209423</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D13">
-        <v>-0.5592545128004203</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E13">
-        <v>0.5190127646174574</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F13">
-        <v>-0.004099370678488867</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G13">
         <v>1.406422522535905</v>
@@ -2461,31 +2425,25 @@
       <c r="AZ13">
         <v>1.406422522535905</v>
       </c>
-      <c r="BA13">
-        <v>1.406422522535905</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="B14">
-        <v>0.4789635212487423</v>
-      </c>
       <c r="C14">
-        <v>-0.07767737160209423</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D14">
-        <v>-0.5592545128004203</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E14">
-        <v>0.5196249850277752</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F14">
-        <v>0.05383383999937053</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G14">
-        <v>1.381725639047744</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H14">
         <v>0.2772422611632095</v>
@@ -2622,31 +2580,25 @@
       <c r="AZ14">
         <v>0.2772422611632095</v>
       </c>
-      <c r="BA14">
-        <v>0.2772422611632095</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="B15">
-        <v>0.4789635212487423</v>
-      </c>
       <c r="C15">
-        <v>-0.07767737160209423</v>
+        <v>-1.116434972621537</v>
       </c>
       <c r="D15">
-        <v>-0.5592545128004203</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E15">
-        <v>0.2712053048682151</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F15">
-        <v>0.09034521845478594</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G15">
-        <v>-0.1965369824803531</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H15">
         <v>0.09777039581079805</v>
@@ -2783,34 +2735,25 @@
       <c r="AZ15">
         <v>0.09777039581079805</v>
       </c>
-      <c r="BA15">
-        <v>0.09777039581079805</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="B16">
-        <v>0.4789635212487423</v>
-      </c>
-      <c r="C16">
-        <v>-0.07767737160209423</v>
-      </c>
       <c r="D16">
-        <v>-0.5592545128004203</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E16">
-        <v>0.2712053048682151</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F16">
-        <v>0.09034521845478594</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G16">
-        <v>-0.7922079768977568</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H16">
-        <v>0.1269550594617357</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I16">
         <v>-3.199651172943476</v>
@@ -2944,31 +2887,25 @@
       <c r="AZ16">
         <v>-3.199651172943476</v>
       </c>
-      <c r="BA16">
-        <v>-3.199651172943476</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>-0.07767737160209423</v>
-      </c>
       <c r="D17">
-        <v>-0.5592545128004203</v>
+        <v>-0.8365594679048295</v>
       </c>
       <c r="E17">
-        <v>0.2712053048682151</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F17">
-        <v>0.09034521845478594</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G17">
-        <v>-1.062265519602065</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H17">
-        <v>0.6717955667865425</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I17">
         <v>0.259771897266873</v>
@@ -3102,34 +3039,25 @@
       <c r="AZ17">
         <v>0.259771897266873</v>
       </c>
-      <c r="BA17">
-        <v>0.259771897266873</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>-0.07767737160209423</v>
-      </c>
-      <c r="D18">
-        <v>-0.5592545128004203</v>
-      </c>
       <c r="E18">
-        <v>0.2712053048682151</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F18">
-        <v>0.09034521845478594</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G18">
-        <v>-0.911621726278625</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H18">
-        <v>0.5720143465663483</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I18">
-        <v>0.8459990880921993</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J18">
         <v>0.9551364114797707</v>
@@ -3260,34 +3188,25 @@
       <c r="AZ18">
         <v>0.9551364114797707</v>
       </c>
-      <c r="BA18">
-        <v>0.9551364114797707</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>-0.07767737160209423</v>
-      </c>
-      <c r="D19">
-        <v>-0.5592545128004203</v>
-      </c>
       <c r="E19">
-        <v>0.2712053048682151</v>
+        <v>-0.3584738072623246</v>
       </c>
       <c r="F19">
-        <v>0.09034521845478594</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G19">
-        <v>0.3178976984730341</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H19">
-        <v>0.650566118073003</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I19">
-        <v>1.304682315704213</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J19">
         <v>0.5541626057207196</v>
@@ -3418,37 +3337,25 @@
       <c r="AZ19">
         <v>0.5541626057207196</v>
       </c>
-      <c r="BA19">
-        <v>0.5541626057207196</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>-0.07767737160209423</v>
-      </c>
-      <c r="D20">
-        <v>-0.5592545128004203</v>
-      </c>
-      <c r="E20">
-        <v>0.2712053048682151</v>
-      </c>
       <c r="F20">
-        <v>0.09034521845478594</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G20">
-        <v>0.3178976984730341</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H20">
-        <v>0.650566118073003</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I20">
-        <v>1.147881733759064</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J20">
-        <v>0.8126901904997936</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K20">
         <v>3.239439136816884</v>
@@ -3576,31 +3483,25 @@
       <c r="AZ20">
         <v>3.239439136816884</v>
       </c>
-      <c r="BA20">
-        <v>3.239439136816884</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>0.2712053048682151</v>
-      </c>
       <c r="F21">
-        <v>0.09034521845478594</v>
+        <v>-0.359524312166532</v>
       </c>
       <c r="G21">
-        <v>0.3178976984730341</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H21">
-        <v>0.650566118073003</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I21">
-        <v>0.7581248089406643</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J21">
-        <v>0.9859221568927694</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K21">
         <v>2.150628251154643</v>
@@ -3728,34 +3629,25 @@
       <c r="AZ21">
         <v>2.150628251154643</v>
       </c>
-      <c r="BA21">
-        <v>2.150628251154643</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>0.2712053048682151</v>
-      </c>
-      <c r="F22">
-        <v>0.09034521845478594</v>
-      </c>
       <c r="G22">
-        <v>0.3178976984730341</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H22">
-        <v>0.650566118073003</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I22">
-        <v>0.6418510343227553</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J22">
-        <v>1.029222621605385</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K22">
-        <v>0.6417484130552253</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L22">
         <v>0.7572494446238807</v>
@@ -3880,34 +3772,25 @@
       <c r="AZ22">
         <v>0.7572494446238807</v>
       </c>
-      <c r="BA22">
-        <v>0.7572494446238807</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>0.2712053048682151</v>
-      </c>
-      <c r="F23">
-        <v>0.09034521845478594</v>
-      </c>
       <c r="G23">
-        <v>0.3178976984730341</v>
+        <v>0.2137532795674573</v>
       </c>
       <c r="H23">
-        <v>0.650566118073003</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I23">
-        <v>0.3540094884652206</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J23">
-        <v>0.3178689890031748</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K23">
-        <v>0.472882426562407</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L23">
         <v>0.5307863054724322</v>
@@ -4032,37 +3915,25 @@
       <c r="AZ23">
         <v>0.5307863054724322</v>
       </c>
-      <c r="BA23">
-        <v>0.5307863054724322</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>0.2712053048682151</v>
-      </c>
-      <c r="F24">
-        <v>0.09034521845478594</v>
-      </c>
-      <c r="G24">
-        <v>0.3178976984730341</v>
-      </c>
       <c r="H24">
-        <v>0.650566118073003</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I24">
-        <v>0.3540094884652206</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J24">
-        <v>0.3178689890031748</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K24">
-        <v>0.5424560602610171</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L24">
-        <v>0.558169387289837</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M24">
         <v>3.614932423215066</v>
@@ -4184,31 +4055,25 @@
       <c r="AZ24">
         <v>3.614932423215066</v>
       </c>
-      <c r="BA24">
-        <v>3.614932423215066</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.3178976984730341</v>
-      </c>
       <c r="H25">
-        <v>0.650566118073003</v>
+        <v>0.6908257641029749</v>
       </c>
       <c r="I25">
-        <v>0.3540094884652206</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J25">
-        <v>0.3178689890031748</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K25">
-        <v>0.5656255759392366</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L25">
-        <v>0.5581754798044614</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M25">
         <v>3.220914903403639</v>
@@ -4330,34 +4195,25 @@
       <c r="AZ25">
         <v>3.220914903403639</v>
       </c>
-      <c r="BA25">
-        <v>3.220914903403639</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.3178976984730341</v>
-      </c>
-      <c r="H26">
-        <v>0.650566118073003</v>
-      </c>
       <c r="I26">
-        <v>0.3540094884652206</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J26">
-        <v>0.3178689890031748</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K26">
-        <v>0.5657163696486549</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L26">
-        <v>0.5584310866045001</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M26">
-        <v>1.171454252931213</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N26">
         <v>0.5259948390972795</v>
@@ -4476,34 +4332,25 @@
       <c r="AZ26">
         <v>0.5259948390972795</v>
       </c>
-      <c r="BA26">
-        <v>0.5259948390972795</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.3178976984730341</v>
-      </c>
-      <c r="H27">
-        <v>0.650566118073003</v>
-      </c>
       <c r="I27">
-        <v>0.3540094884652206</v>
+        <v>0.4521995282295975</v>
       </c>
       <c r="J27">
-        <v>0.3178689890031748</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K27">
-        <v>0.9947567147905432</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L27">
-        <v>1.0121950006234</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M27">
-        <v>0.3891881756981519</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N27">
         <v>0.6824355029599474</v>
@@ -4622,37 +4469,25 @@
       <c r="AZ27">
         <v>0.6824355029599474</v>
       </c>
-      <c r="BA27">
-        <v>0.6824355029599474</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.3178976984730341</v>
-      </c>
-      <c r="H28">
-        <v>0.650566118073003</v>
-      </c>
-      <c r="I28">
-        <v>0.3540094884652206</v>
-      </c>
       <c r="J28">
-        <v>0.3178689890031748</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K28">
-        <v>0.9947567147905432</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L28">
-        <v>1.0121950006234</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M28">
-        <v>0.5711818380382852</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N28">
-        <v>0.6788814428255137</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O28">
         <v>-2.447111617029435</v>
@@ -4768,31 +4603,25 @@
       <c r="AZ28">
         <v>-2.447111617029435</v>
       </c>
-      <c r="BA28">
-        <v>-2.447111617029435</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.3540094884652206</v>
-      </c>
       <c r="J29">
-        <v>0.3178689890031748</v>
+        <v>0.3879727950166085</v>
       </c>
       <c r="K29">
-        <v>0.9947567147905432</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L29">
-        <v>1.0121950006234</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M29">
-        <v>0.6286173499290442</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N29">
-        <v>0.7225636420433119</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O29">
         <v>0.5166694479245422</v>
@@ -4908,34 +4737,25 @@
       <c r="AZ29">
         <v>0.5166694479245422</v>
       </c>
-      <c r="BA29">
-        <v>0.5166694479245422</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.3540094884652206</v>
-      </c>
-      <c r="J30">
-        <v>0.3178689890031748</v>
-      </c>
       <c r="K30">
-        <v>0.9947567147905432</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L30">
-        <v>1.0121950006234</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M30">
-        <v>0.6288359190683224</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N30">
-        <v>0.7233856008953126</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O30">
-        <v>0.6144410025243445</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P30">
         <v>0.02799823082109754</v>
@@ -5048,34 +4868,25 @@
       <c r="AZ30">
         <v>0.02799823082109754</v>
       </c>
-      <c r="BA30">
-        <v>0.02799823082109754</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.3540094884652206</v>
-      </c>
-      <c r="J31">
-        <v>0.3178689890031748</v>
-      </c>
       <c r="K31">
-        <v>0.9947567147905432</v>
+        <v>0.9997248001704335</v>
       </c>
       <c r="L31">
-        <v>1.0121950006234</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M31">
-        <v>1.366378886353468</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N31">
-        <v>1.360777235569103</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O31">
-        <v>0.8862767946391017</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P31">
         <v>0.7434723928571856</v>
@@ -5188,37 +4999,25 @@
       <c r="AZ31">
         <v>0.7434723928571856</v>
       </c>
-      <c r="BA31">
-        <v>0.7434723928571856</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.3540094884652206</v>
-      </c>
-      <c r="J32">
-        <v>0.3178689890031748</v>
-      </c>
-      <c r="K32">
-        <v>0.9947567147905432</v>
-      </c>
       <c r="L32">
-        <v>1.0121950006234</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M32">
-        <v>1.366378886353468</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N32">
-        <v>1.360777235569103</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O32">
-        <v>0.9167686939480291</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P32">
-        <v>0.8036493619276257</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q32">
         <v>0.05893999533155636</v>
@@ -5328,31 +5127,25 @@
       <c r="AZ32">
         <v>0.05893999533155636</v>
       </c>
-      <c r="BA32">
-        <v>0.05893999533155636</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.9947567147905432</v>
-      </c>
       <c r="L33">
-        <v>1.0121950006234</v>
+        <v>0.5622535536565735</v>
       </c>
       <c r="M33">
-        <v>1.366378886353468</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N33">
-        <v>1.360777235569103</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O33">
-        <v>0.9600127617940331</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P33">
-        <v>0.8668337571527758</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q33">
         <v>0.08345847455619548</v>
@@ -5462,34 +5255,25 @@
       <c r="AZ33">
         <v>0.08345847455619548</v>
       </c>
-      <c r="BA33">
-        <v>0.08345847455619548</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.9947567147905432</v>
-      </c>
-      <c r="L34">
-        <v>1.0121950006234</v>
-      </c>
       <c r="M34">
-        <v>1.366378886353468</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N34">
-        <v>1.360777235569103</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O34">
-        <v>0.9600671730357675</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P34">
-        <v>0.9249338030575416</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q34">
-        <v>0.2478381909510432</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R34">
         <v>0.8395897642787418</v>
@@ -5596,34 +5380,25 @@
       <c r="AZ34">
         <v>0.8395897642787418</v>
       </c>
-      <c r="BA34">
-        <v>0.8395897642787418</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.9947567147905432</v>
-      </c>
-      <c r="L35">
-        <v>1.0121950006234</v>
-      </c>
       <c r="M35">
-        <v>1.366378886353468</v>
+        <v>1.208337020621043</v>
       </c>
       <c r="N35">
-        <v>1.360777235569103</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O35">
-        <v>0.6836469502297249</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P35">
-        <v>0.5865790622172199</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q35">
-        <v>0.337517971417995</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R35">
         <v>0.6563473872696477</v>
@@ -5730,37 +5505,25 @@
       <c r="AZ35">
         <v>0.6563473872696477</v>
       </c>
-      <c r="BA35">
-        <v>0.6563473872696477</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.9947567147905432</v>
-      </c>
-      <c r="L36">
-        <v>1.0121950006234</v>
-      </c>
-      <c r="M36">
-        <v>1.366378886353468</v>
-      </c>
       <c r="N36">
-        <v>1.360777235569103</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O36">
-        <v>0.6836469502297249</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P36">
-        <v>0.5865790622172199</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q36">
-        <v>0.5064407828060808</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R36">
-        <v>0.7128866015186759</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S36">
         <v>-0.6309168039368558</v>
@@ -5864,31 +5627,25 @@
       <c r="AZ36">
         <v>-0.6309168039368558</v>
       </c>
-      <c r="BA36">
-        <v>-0.6309168039368558</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>1.366378886353468</v>
-      </c>
       <c r="N37">
-        <v>1.360777235569103</v>
+        <v>1.623167982394426</v>
       </c>
       <c r="O37">
-        <v>0.6836469502297249</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P37">
-        <v>0.5865790622172199</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q37">
-        <v>0.6175810576904581</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R37">
-        <v>0.7438026122411827</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S37">
         <v>0.6494255158807789</v>
@@ -5992,34 +5749,25 @@
       <c r="AZ37">
         <v>0.6494255158807789</v>
       </c>
-      <c r="BA37">
-        <v>0.6494255158807789</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>1.366378886353468</v>
-      </c>
-      <c r="N38">
-        <v>1.360777235569103</v>
-      </c>
       <c r="O38">
-        <v>0.6836469502297249</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P38">
-        <v>0.5865790622172199</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q38">
-        <v>0.6208163030755998</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R38">
-        <v>0.5516421641742255</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S38">
-        <v>0.7724317667485678</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T38">
         <v>1.43264353805759</v>
@@ -6120,34 +5868,25 @@
       <c r="AZ38">
         <v>1.43264353805759</v>
       </c>
-      <c r="BA38">
-        <v>1.43264353805759</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>1.366378886353468</v>
-      </c>
-      <c r="N39">
-        <v>1.360777235569103</v>
-      </c>
       <c r="O39">
-        <v>0.6836469502297249</v>
+        <v>1.279193863763888</v>
       </c>
       <c r="P39">
-        <v>0.5865790622172199</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q39">
-        <v>0.3760732847431754</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R39">
-        <v>0.6273934612667631</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S39">
-        <v>0.7692710224212647</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T39">
         <v>0.7380307906906296</v>
@@ -6248,37 +5987,25 @@
       <c r="AZ39">
         <v>0.7380307906906296</v>
       </c>
-      <c r="BA39">
-        <v>0.7380307906906296</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>1.366378886353468</v>
-      </c>
-      <c r="N40">
-        <v>1.360777235569103</v>
-      </c>
-      <c r="O40">
-        <v>0.6836469502297249</v>
-      </c>
       <c r="P40">
-        <v>0.5865790622172199</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q40">
-        <v>0.3760732847431754</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R40">
-        <v>0.628129929716664</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S40">
-        <v>0.7695612873212667</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T40">
-        <v>0.7376561085117714</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U40">
         <v>0.93278395318805</v>
@@ -6376,31 +6103,25 @@
       <c r="AZ40">
         <v>0.93278395318805</v>
       </c>
-      <c r="BA40">
-        <v>0.93278395318805</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.6836469502297249</v>
-      </c>
       <c r="P41">
-        <v>0.5865790622172199</v>
+        <v>0.8173341873345634</v>
       </c>
       <c r="Q41">
-        <v>0.3760732847431754</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R41">
-        <v>0.6674945835057713</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S41">
-        <v>0.781901784070385</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T41">
-        <v>0.7752207669770286</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U41">
         <v>0.737240821947637</v>
@@ -6498,34 +6219,25 @@
       <c r="AZ41">
         <v>0.737240821947637</v>
       </c>
-      <c r="BA41">
-        <v>0.737240821947637</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.6836469502297249</v>
-      </c>
-      <c r="P42">
-        <v>0.5865790622172199</v>
-      </c>
       <c r="Q42">
-        <v>0.3760732847431754</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R42">
-        <v>0.6678010111104555</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S42">
-        <v>0.7821045013343593</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T42">
-        <v>0.7755165880529091</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U42">
-        <v>0.7662744199943035</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V42">
         <v>1.113688352880345</v>
@@ -6620,37 +6332,28 @@
       <c r="AZ42">
         <v>1.113688352880345</v>
       </c>
-      <c r="BA42">
-        <v>1.113688352880345</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.6836469502297249</v>
-      </c>
-      <c r="P43">
-        <v>0.5865790622172199</v>
-      </c>
       <c r="Q43">
-        <v>0.3760732847431754</v>
+        <v>0.7027704593137074</v>
       </c>
       <c r="R43">
-        <v>0.6178545989638323</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S43">
-        <v>0.5473174699944352</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T43">
-        <v>0.6448074495218208</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U43">
-        <v>0.7712878137015906</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V43">
-        <v>0.9080681459062703</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W43">
         <v>0.9738389087563917</v>
@@ -6742,40 +6445,28 @@
       <c r="AZ43">
         <v>0.9738389087563917</v>
       </c>
-      <c r="BA43">
-        <v>0.9738389087563917</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.6836469502297249</v>
-      </c>
-      <c r="P44">
-        <v>0.5865790622172199</v>
-      </c>
-      <c r="Q44">
-        <v>0.3760732847431754</v>
-      </c>
       <c r="R44">
-        <v>0.6178545989638323</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S44">
-        <v>0.5473174699944352</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T44">
-        <v>0.6451379409190565</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U44">
-        <v>0.7779498483449885</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V44">
-        <v>0.7566849908938593</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W44">
-        <v>0.8582147780612672</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X44">
         <v>1.449096432937026</v>
@@ -6864,37 +6555,31 @@
       <c r="AZ44">
         <v>1.449096432937026</v>
       </c>
-      <c r="BA44">
-        <v>1.449096432937026</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.3760732847431754</v>
-      </c>
       <c r="R45">
-        <v>0.6178545989638323</v>
+        <v>0.1687794418066758</v>
       </c>
       <c r="S45">
-        <v>0.5473174699944352</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T45">
-        <v>0.6571457042417137</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U45">
-        <v>0.6730414478020066</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V45">
-        <v>0.7422540712829004</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W45">
-        <v>0.8344196445528382</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X45">
-        <v>0.4818206891472414</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y45">
         <v>0.7453671605556593</v>
@@ -6980,40 +6665,31 @@
       <c r="AZ45">
         <v>0.7453671605556593</v>
       </c>
-      <c r="BA45">
-        <v>0.7453671605556593</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.3760732847431754</v>
-      </c>
-      <c r="R46">
-        <v>0.6178545989638323</v>
-      </c>
       <c r="S46">
-        <v>0.5473174699944352</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T46">
-        <v>0.6575286109465424</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U46">
-        <v>0.6733048709582903</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V46">
-        <v>0.6056357471380807</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W46">
-        <v>0.8367066861524535</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X46">
-        <v>0.4825903356696699</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y46">
-        <v>0.5964643102394973</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z46">
         <v>0.8</v>
@@ -7096,43 +6772,34 @@
       <c r="AZ46">
         <v>0.8</v>
       </c>
-      <c r="BA46">
-        <v>0.8</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.3760732847431754</v>
-      </c>
-      <c r="R47">
-        <v>0.6178545989638323</v>
-      </c>
       <c r="S47">
-        <v>0.5473174699944352</v>
+        <v>0.04978727879534546</v>
       </c>
       <c r="T47">
-        <v>0.7713113013799842</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U47">
-        <v>0.8151983020565865</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V47">
-        <v>0.6057317098380395</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W47">
-        <v>0.5542329236227488</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X47">
-        <v>0.6523204076899418</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y47">
-        <v>0.6645473978097272</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z47">
-        <v>0.7</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA47">
         <v>0.8101615090027252</v>
@@ -7212,46 +6879,34 @@
       <c r="AZ47">
         <v>0.8101615090027252</v>
       </c>
-      <c r="BA47">
-        <v>0.8101615090027252</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.3760732847431754</v>
-      </c>
-      <c r="R48">
-        <v>0.6178545989638323</v>
-      </c>
-      <c r="S48">
-        <v>0.5473174699944352</v>
-      </c>
       <c r="T48">
-        <v>0.7713113013799842</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U48">
-        <v>0.8151983020565865</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V48">
-        <v>0.5881173499186332</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W48">
-        <v>0.5636629582036647</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X48">
-        <v>0.6530272688590486</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y48">
-        <v>0.665769779831237</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z48">
-        <v>0.7</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA48">
-        <v>0.7073931888332226</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB48">
         <v>0.7</v>
@@ -7328,46 +6983,37 @@
       <c r="AZ48">
         <v>0.7</v>
       </c>
-      <c r="BA48">
-        <v>0.7</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.6178545989638323</v>
-      </c>
-      <c r="S49">
-        <v>0.5473174699944352</v>
-      </c>
       <c r="T49">
-        <v>0.7713113013799842</v>
+        <v>0.4598989285806567</v>
       </c>
       <c r="U49">
-        <v>0.8151983020565865</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V49">
-        <v>0.5639948157054135</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W49">
-        <v>0.5943457971663975</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X49">
-        <v>0.6532727756092953</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y49">
-        <v>0.6660388891269946</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z49">
-        <v>0.7</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA49">
-        <v>0.6805888739909136</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB49">
-        <v>0.6</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC49">
         <v>0.8264499850772893</v>
@@ -7441,49 +7087,37 @@
       <c r="AZ49">
         <v>0.8264499850772893</v>
       </c>
-      <c r="BA49">
-        <v>0.8264499850772893</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.6178545989638323</v>
-      </c>
-      <c r="S50">
-        <v>0.5473174699944352</v>
-      </c>
-      <c r="T50">
-        <v>0.7713113013799842</v>
-      </c>
       <c r="U50">
-        <v>0.8151983020565865</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V50">
-        <v>0.5645221577616581</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W50">
-        <v>0.5949746708176207</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X50">
-        <v>0.6535179153677859</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y50">
-        <v>0.6663075925577857</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z50">
-        <v>0.7</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA50">
-        <v>0.6674921729264724</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB50">
-        <v>0.6</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC50">
-        <v>0.6069572932079836</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD50">
         <v>0.2694717384078302</v>
@@ -7554,52 +7188,40 @@
       <c r="AZ50">
         <v>0.2694717384078302</v>
       </c>
-      <c r="BA50">
-        <v>0.2694717384078302</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.6178545989638323</v>
-      </c>
-      <c r="S51">
-        <v>0.5473174699944352</v>
-      </c>
-      <c r="T51">
-        <v>0.7713113013799842</v>
-      </c>
       <c r="U51">
-        <v>0.8151983020565865</v>
+        <v>0.5497543437263971</v>
       </c>
       <c r="V51">
-        <v>0.7185938163272837</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W51">
-        <v>0.7661325542161365</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X51">
-        <v>0.7850413908864382</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y51">
-        <v>0.5923719208076079</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z51">
-        <v>0.5</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA51">
-        <v>0.4786476743451828</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB51">
-        <v>0.5</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC51">
-        <v>0.4615803504301965</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD51">
-        <v>0.4790197750679681</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE51">
         <v>0.9709779412929294</v>
@@ -7667,55 +7289,40 @@
       <c r="AZ51">
         <v>0.9709779412929294</v>
       </c>
-      <c r="BA51">
-        <v>0.9709779412929294</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.6178545989638323</v>
-      </c>
-      <c r="S52">
-        <v>0.5473174699944352</v>
-      </c>
-      <c r="T52">
-        <v>0.7713113013799842</v>
-      </c>
-      <c r="U52">
-        <v>0.8151983020565865</v>
-      </c>
       <c r="V52">
-        <v>0.7185938163272837</v>
+        <v>0.655229179481276</v>
       </c>
       <c r="W52">
-        <v>0.7661325542161365</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X52">
-        <v>0.7850413908864382</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y52">
-        <v>0.5921635512616348</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z52">
-        <v>0.5</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA52">
-        <v>0.4795892681231635</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB52">
-        <v>0.5</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC52">
-        <v>0.4620255922981471</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD52">
-        <v>0.4777114241629761</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE52">
-        <v>-0.3951067386682467</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF52">
         <v>-6</v>
@@ -7780,52 +7387,40 @@
       <c r="AZ52">
         <v>-6</v>
       </c>
-      <c r="BA52">
-        <v>-6</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.7713113013799842</v>
-      </c>
-      <c r="U53">
-        <v>0.8151983020565865</v>
-      </c>
-      <c r="V53">
-        <v>0.7185938163272837</v>
-      </c>
       <c r="W53">
-        <v>0.7661325542161365</v>
+        <v>0.7442672229012957</v>
       </c>
       <c r="X53">
-        <v>0.7850413908864382</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y53">
-        <v>0.5925698485446134</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z53">
-        <v>0.5</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA53">
-        <v>0.480000094830217</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB53">
-        <v>0.5</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC53">
-        <v>0.462341283985694</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD53">
-        <v>0.4165535904695332</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE53">
-        <v>0.3457232704569719</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF53">
-        <v>1.1</v>
+        <v>-0.3941836453765433</v>
       </c>
       <c r="AG53">
         <v>-0.3941836453765433</v>
@@ -7887,55 +7482,40 @@
       <c r="AZ53">
         <v>-0.3941836453765433</v>
       </c>
-      <c r="BA53">
-        <v>-0.3941836453765433</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.7713113013799842</v>
-      </c>
-      <c r="U54">
-        <v>0.8151983020565865</v>
-      </c>
-      <c r="V54">
-        <v>0.7185938163272837</v>
-      </c>
-      <c r="W54">
-        <v>0.7661325542161365</v>
-      </c>
       <c r="X54">
-        <v>0.7850413908864382</v>
+        <v>0.8052178897671241</v>
       </c>
       <c r="Y54">
-        <v>0.5929756788467131</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z54">
-        <v>0.5</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA54">
-        <v>0.4804101345901017</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB54">
-        <v>0.5</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC54">
-        <v>0.4626566331304929</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD54">
-        <v>0.4166659776295916</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE54">
-        <v>0.4236903864317014</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF54">
-        <v>0.9</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG54">
-        <v>0.8165015886790314</v>
+        <v>0.8801590087334432</v>
       </c>
       <c r="AH54">
         <v>0.8801590087334432</v>
@@ -7994,58 +7574,40 @@
       <c r="AZ54">
         <v>0.8801590087334432</v>
       </c>
-      <c r="BA54">
-        <v>0.8801590087334432</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.7713113013799842</v>
-      </c>
-      <c r="U55">
-        <v>0.8151983020565865</v>
-      </c>
-      <c r="V55">
-        <v>0.7185938163272837</v>
-      </c>
-      <c r="W55">
-        <v>0.7661325542161365</v>
-      </c>
-      <c r="X55">
-        <v>0.7850413908864382</v>
-      </c>
       <c r="Y55">
-        <v>0.6374576129581471</v>
+        <v>0.8141198670957251</v>
       </c>
       <c r="Z55">
-        <v>0.6345367160555659</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA55">
-        <v>0.6329650077197658</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB55">
-        <v>0.6255528669558384</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC55">
-        <v>0.3208668783516373</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD55">
-        <v>0.4029365108769696</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE55">
-        <v>0.4039905327815489</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF55">
-        <v>0.9</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG55">
-        <v>0.8755752926232816</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH55">
-        <v>1.287283700333575</v>
+        <v>-3.629169871908772</v>
       </c>
       <c r="AI55">
         <v>-3.629169871908772</v>
@@ -8101,61 +7663,40 @@
       <c r="AZ55">
         <v>-3.629169871908772</v>
       </c>
-      <c r="BA55">
-        <v>-3.629169871908772</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.7713113013799842</v>
-      </c>
-      <c r="U56">
-        <v>0.8151983020565865</v>
-      </c>
-      <c r="V56">
-        <v>0.7185938163272837</v>
-      </c>
-      <c r="W56">
-        <v>0.7661325542161365</v>
-      </c>
-      <c r="X56">
-        <v>0.7850413908864382</v>
-      </c>
-      <c r="Y56">
-        <v>0.6374576129581471</v>
-      </c>
       <c r="Z56">
-        <v>0.6345367160555659</v>
+        <v>0.9572115474894108</v>
       </c>
       <c r="AA56">
-        <v>0.6329650077197658</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB56">
-        <v>0.6255528669558384</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC56">
-        <v>0.3210953086939554</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD56">
-        <v>0.4032615476277357</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE56">
-        <v>0.4042593199474709</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF56">
-        <v>0.8</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG56">
-        <v>0.8475926713922775</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH56">
-        <v>1.127486320425248</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI56">
-        <v>2.506963683269746</v>
+        <v>0.6879412097722906</v>
       </c>
       <c r="AJ56">
         <v>0.6879412097722906</v>
@@ -8208,58 +7749,40 @@
       <c r="AZ56">
         <v>0.6879412097722906</v>
       </c>
-      <c r="BA56">
-        <v>0.6879412097722906</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.7185938163272837</v>
-      </c>
-      <c r="W57">
-        <v>0.7661325542161365</v>
-      </c>
-      <c r="X57">
-        <v>0.7850413908864382</v>
-      </c>
-      <c r="Y57">
-        <v>0.6374576129581471</v>
-      </c>
-      <c r="Z57">
-        <v>0.6345367160555659</v>
-      </c>
       <c r="AA57">
-        <v>0.6329650077197658</v>
+        <v>0.9732851468016055</v>
       </c>
       <c r="AB57">
-        <v>0.6255528669558384</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC57">
-        <v>0.3212121583454461</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD57">
-        <v>0.4034294437505537</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE57">
-        <v>0.4044264880465676</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF57">
-        <v>0.5</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG57">
-        <v>0.539582574762477</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH57">
-        <v>0.9028690035243585</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI57">
-        <v>2.231468053493131</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ57">
-        <v>1.579223146301857</v>
+        <v>1.095591413702294</v>
       </c>
       <c r="AK57">
         <v>1.095591413702294</v>
@@ -8309,61 +7832,40 @@
       <c r="AZ57">
         <v>1.095591413702294</v>
       </c>
-      <c r="BA57">
-        <v>1.095591413702294</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.7185938163272837</v>
-      </c>
-      <c r="W58">
-        <v>0.7661325542161365</v>
-      </c>
-      <c r="X58">
-        <v>0.7850413908864382</v>
-      </c>
-      <c r="Y58">
-        <v>0.6374576129581471</v>
-      </c>
-      <c r="Z58">
-        <v>0.6345367160555659</v>
-      </c>
-      <c r="AA58">
-        <v>0.6329650077197658</v>
-      </c>
       <c r="AB58">
-        <v>0.6255528669558384</v>
+        <v>0.9000207929958464</v>
       </c>
       <c r="AC58">
-        <v>0.3213289040714358</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD58">
-        <v>0.4035971760071533</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE58">
-        <v>0.4045934898284145</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF58">
-        <v>0.5</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG58">
-        <v>0.539915376415621</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH58">
-        <v>0.8906322536080751</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI58">
-        <v>1.733421009048215</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ58">
-        <v>1.211006167420919</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK58">
-        <v>1.491698589553721</v>
+        <v>0.3375818094670819</v>
       </c>
       <c r="AL58">
         <v>0.3375818094670819</v>
@@ -8410,64 +7912,40 @@
       <c r="AZ58">
         <v>0.3375818094670819</v>
       </c>
-      <c r="BA58">
-        <v>0.3375818094670819</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.7185938163272837</v>
-      </c>
-      <c r="W59">
-        <v>0.7661325542161365</v>
-      </c>
-      <c r="X59">
-        <v>0.7850413908864382</v>
-      </c>
-      <c r="Y59">
-        <v>0.6374576129581471</v>
-      </c>
-      <c r="Z59">
-        <v>0.6345367160555659</v>
-      </c>
-      <c r="AA59">
-        <v>0.6329650077197658</v>
-      </c>
-      <c r="AB59">
-        <v>0.6255528669558384</v>
-      </c>
       <c r="AC59">
-        <v>0.4566514387592278</v>
+        <v>0.9088627124345123</v>
       </c>
       <c r="AD59">
-        <v>0.44990971690776</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE59">
-        <v>0.4058476413602478</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF59">
-        <v>0.07668996647780491</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG59">
-        <v>0.565387649938387</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH59">
-        <v>0.4771510906565766</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI59">
-        <v>0.7762107489414518</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ59">
-        <v>0.6381609110613624</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK59">
-        <v>1.001444249407427</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL59">
-        <v>1.899999999999991</v>
+        <v>2.107773878883052</v>
       </c>
       <c r="AM59">
         <v>2.107773878883052</v>
@@ -8511,67 +7989,40 @@
       <c r="AZ59">
         <v>2.107773878883052</v>
       </c>
-      <c r="BA59">
-        <v>2.107773878883052</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.7185938163272837</v>
-      </c>
-      <c r="W60">
-        <v>0.7661325542161365</v>
-      </c>
-      <c r="X60">
-        <v>0.7850413908864382</v>
-      </c>
-      <c r="Y60">
-        <v>0.6374576129581471</v>
-      </c>
-      <c r="Z60">
-        <v>0.6345367160555659</v>
-      </c>
-      <c r="AA60">
-        <v>0.6329650077197658</v>
-      </c>
-      <c r="AB60">
-        <v>0.6255528669558384</v>
-      </c>
-      <c r="AC60">
-        <v>0.4566514387592278</v>
-      </c>
       <c r="AD60">
-        <v>0.44990971690776</v>
+        <v>0.8425314909564904</v>
       </c>
       <c r="AE60">
-        <v>0.4058476413602478</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF60">
-        <v>0.07668996647780491</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG60">
-        <v>0.5659040305895076</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH60">
-        <v>0.4713567898164399</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI60">
-        <v>0.5849967883139158</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ60">
-        <v>0.5349096264491777</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK60">
-        <v>0.669105553256415</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL60">
-        <v>1.499999999999986</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM60">
-        <v>1.825927060424235</v>
+        <v>-1.59627740363824</v>
       </c>
       <c r="AN60">
         <v>-1.59627740363824</v>
@@ -8612,61 +8063,40 @@
       <c r="AZ60">
         <v>-1.59627740363824</v>
       </c>
-      <c r="BA60">
-        <v>-1.59627740363824</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.6374576129581471</v>
-      </c>
-      <c r="Z61">
-        <v>0.6345367160555659</v>
-      </c>
-      <c r="AA61">
-        <v>0.6329650077197658</v>
-      </c>
-      <c r="AB61">
-        <v>0.6255528669558384</v>
-      </c>
-      <c r="AC61">
-        <v>0.4566514387592278</v>
-      </c>
-      <c r="AD61">
-        <v>0.44990971690776</v>
-      </c>
       <c r="AE61">
-        <v>0.4058476413602478</v>
+        <v>0.8659052028910196</v>
       </c>
       <c r="AF61">
-        <v>0.07668996647780491</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG61">
-        <v>0.5661083054555434</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH61">
-        <v>0.4101110354300204</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI61">
-        <v>0.3578838054035742</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ61">
-        <v>0.3558201804967069</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK61">
-        <v>0.5924550313764883</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL61">
-        <v>1.261968047254513</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM61">
-        <v>1.247078917892267</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN61">
-        <v>0.6360212899097775</v>
+        <v>-0.2429958482083094</v>
       </c>
       <c r="AO61">
         <v>-0.2429958482083094</v>
@@ -8704,64 +8134,40 @@
       <c r="AZ61">
         <v>-0.2429958482083094</v>
       </c>
-      <c r="BA61">
-        <v>-0.2429958482083094</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.6374576129581471</v>
-      </c>
-      <c r="Z62">
-        <v>0.6345367160555659</v>
-      </c>
-      <c r="AA62">
-        <v>0.6329650077197658</v>
-      </c>
-      <c r="AB62">
-        <v>0.6255528669558384</v>
-      </c>
-      <c r="AC62">
-        <v>0.4566514387592278</v>
-      </c>
-      <c r="AD62">
-        <v>0.44990971690776</v>
-      </c>
-      <c r="AE62">
-        <v>0.4058476413602478</v>
-      </c>
       <c r="AF62">
-        <v>0.07668996647780491</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG62">
-        <v>0.5663128372205222</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH62">
-        <v>0.410248217867462</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI62">
-        <v>0.3582381007614259</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ62">
-        <v>0.3561732032164429</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK62">
-        <v>0.5931001582837325</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL62">
-        <v>0.8836336109360161</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM62">
-        <v>1.017541745538338</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN62">
-        <v>1.596777950971301</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO62">
-        <v>-0.7601644496390776</v>
+        <v>-0.5009691804783216</v>
       </c>
       <c r="AP62">
         <v>-0.5009691804783216</v>
@@ -8796,67 +8202,43 @@
       <c r="AZ62">
         <v>-0.5009691804783216</v>
       </c>
-      <c r="BA62">
-        <v>-0.5009691804783216</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.6374576129581471</v>
-      </c>
-      <c r="Z63">
-        <v>0.6345367160555659</v>
-      </c>
-      <c r="AA63">
-        <v>0.6329650077197658</v>
-      </c>
-      <c r="AB63">
-        <v>0.6255528669558384</v>
-      </c>
-      <c r="AC63">
-        <v>0.4566514387592278</v>
-      </c>
-      <c r="AD63">
-        <v>0.44990971690776</v>
-      </c>
-      <c r="AE63">
-        <v>0.4058476413602478</v>
-      </c>
       <c r="AF63">
-        <v>0.07668996647780491</v>
+        <v>0.01773411218969158</v>
       </c>
       <c r="AG63">
-        <v>0.5488696681700105</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH63">
-        <v>0.6463113775018655</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI63">
-        <v>0.5405987680679587</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ63">
-        <v>0.2220039936166884</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK63">
-        <v>0.4227717190683649</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL63">
-        <v>0.4177330986773171</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM63">
-        <v>0.8674685025136029</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN63">
-        <v>0.4220709734250363</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO63">
-        <v>-0.5619418543831358</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP63">
-        <v>-1.002803812062481</v>
+        <v>0.6399165487990643</v>
       </c>
       <c r="AQ63">
         <v>0.6399165487990643</v>
@@ -8888,70 +8270,43 @@
       <c r="AZ63">
         <v>0.6399165487990643</v>
       </c>
-      <c r="BA63">
-        <v>0.6399165487990643</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.6374576129581471</v>
-      </c>
-      <c r="Z64">
-        <v>0.6345367160555659</v>
-      </c>
-      <c r="AA64">
-        <v>0.6329650077197658</v>
-      </c>
-      <c r="AB64">
-        <v>0.6255528669558384</v>
-      </c>
-      <c r="AC64">
-        <v>0.4566514387592278</v>
-      </c>
-      <c r="AD64">
-        <v>0.44990971690776</v>
-      </c>
-      <c r="AE64">
-        <v>0.4058476413602478</v>
-      </c>
-      <c r="AF64">
-        <v>0.07668996647780491</v>
-      </c>
       <c r="AG64">
-        <v>0.5488696681700105</v>
+        <v>-0.03915963023066667</v>
       </c>
       <c r="AH64">
-        <v>0.6463113775018655</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI64">
-        <v>0.5405987680679587</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ64">
-        <v>0.2220039936166884</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK64">
-        <v>0.4227483540697676</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL64">
-        <v>0.4265924408188653</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM64">
-        <v>0.5611739041530228</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN64">
-        <v>0.300976128603665</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO64">
-        <v>0.3206171571458185</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP64">
-        <v>-0.2473557684777461</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ64">
-        <v>-0.5707727015197008</v>
+        <v>-1.082392568246973</v>
       </c>
       <c r="AR64">
         <v>-1.082392568246973</v>
@@ -8980,61 +8335,43 @@
       <c r="AZ64">
         <v>-1.082392568246973</v>
       </c>
-      <c r="BA64">
-        <v>-1.082392568246973</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.4566514387592278</v>
-      </c>
-      <c r="AD65">
-        <v>0.44990971690776</v>
-      </c>
-      <c r="AE65">
-        <v>0.4058476413602478</v>
-      </c>
-      <c r="AF65">
-        <v>0.07668996647780491</v>
-      </c>
-      <c r="AG65">
-        <v>0.5488696681700105</v>
-      </c>
       <c r="AH65">
-        <v>0.6463113775018655</v>
+        <v>-0.4766133334771098</v>
       </c>
       <c r="AI65">
-        <v>0.5405987680679587</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ65">
-        <v>0.2220039936166884</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK65">
-        <v>0.379900233589936</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL65">
-        <v>0.3813613064184835</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM65">
-        <v>0.5609204932029712</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN65">
-        <v>0.2133322007338307</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO65">
-        <v>0.5037909770959601</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP65">
-        <v>0.2557045158832096</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ65">
-        <v>0.3443383209621658</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR65">
-        <v>-1.482980287195304</v>
+        <v>-1.253192088351895</v>
       </c>
       <c r="AS65">
         <v>-1.253192088351895</v>
@@ -9060,64 +8397,43 @@
       <c r="AZ65">
         <v>-1.253192088351895</v>
       </c>
-      <c r="BA65">
-        <v>-1.253192088351895</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.4566514387592278</v>
-      </c>
-      <c r="AD66">
-        <v>0.44990971690776</v>
-      </c>
-      <c r="AE66">
-        <v>0.4058476413602478</v>
-      </c>
-      <c r="AF66">
-        <v>0.07668996647780491</v>
-      </c>
-      <c r="AG66">
-        <v>0.5488696681700105</v>
-      </c>
-      <c r="AH66">
-        <v>0.6463113775018655</v>
-      </c>
       <c r="AI66">
-        <v>0.5405987680679587</v>
+        <v>-0.4878192124998807</v>
       </c>
       <c r="AJ66">
-        <v>0.2220039936166884</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK66">
-        <v>0.3812601305627368</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL66">
-        <v>0.3829505529506321</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM66">
-        <v>0.5361813870538015</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN66">
-        <v>0.2141789606539248</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO66">
-        <v>0.5802378555585364</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP66">
-        <v>0.5953630819808922</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ66">
-        <v>0.7349233804709883</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR66">
-        <v>-1.158099220658045</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS66">
-        <v>-0.8967749722241507</v>
+        <v>-1.225249013415265</v>
       </c>
       <c r="AT66">
         <v>-1.225249013415265</v>
@@ -9140,67 +8456,43 @@
       <c r="AZ66">
         <v>-1.225249013415265</v>
       </c>
-      <c r="BA66">
-        <v>-1.225249013415265</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.4566514387592278</v>
-      </c>
-      <c r="AD67">
-        <v>0.44990971690776</v>
-      </c>
-      <c r="AE67">
-        <v>0.4058476413602478</v>
-      </c>
-      <c r="AF67">
-        <v>0.07668996647780491</v>
-      </c>
-      <c r="AG67">
-        <v>0.5488696681700105</v>
-      </c>
-      <c r="AH67">
-        <v>0.6463113775018655</v>
-      </c>
-      <c r="AI67">
-        <v>0.5405987680679587</v>
-      </c>
       <c r="AJ67">
-        <v>0.2220039936166884</v>
+        <v>-0.4592762220299239</v>
       </c>
       <c r="AK67">
-        <v>0.7050075432870883</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL67">
-        <v>0.8587412280225181</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM67">
-        <v>1.015723911283067</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN67">
-        <v>0.5328027202711724</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO67">
-        <v>1.033334771491255</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP67">
-        <v>0.7746376111746258</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ67">
-        <v>0.8788449032025341</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR67">
-        <v>-0.752998921680927</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS67">
-        <v>-0.523195549241052</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT67">
-        <v>-0.8182812689731662</v>
+        <v>-0.1672491925858992</v>
       </c>
       <c r="AU67">
         <v>-0.1672491925858992</v>
@@ -9220,70 +8512,43 @@
       <c r="AZ67">
         <v>-0.1672491925858992</v>
       </c>
-      <c r="BA67">
-        <v>-0.1672491925858992</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.4566514387592278</v>
-      </c>
-      <c r="AD68">
-        <v>0.44990971690776</v>
-      </c>
-      <c r="AE68">
-        <v>0.4058476413602478</v>
-      </c>
-      <c r="AF68">
-        <v>0.07668996647780491</v>
-      </c>
-      <c r="AG68">
-        <v>0.5488696681700105</v>
-      </c>
-      <c r="AH68">
-        <v>0.6463113775018655</v>
-      </c>
-      <c r="AI68">
-        <v>0.5405987680679587</v>
-      </c>
-      <c r="AJ68">
-        <v>0.2220039936166884</v>
-      </c>
       <c r="AK68">
-        <v>0.7050075432870883</v>
+        <v>-0.4955180410832156</v>
       </c>
       <c r="AL68">
-        <v>0.8587412280225181</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM68">
-        <v>1.015723911283067</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN68">
-        <v>0.5328027202711724</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO68">
-        <v>0.9051321049412735</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP68">
-        <v>0.793778326795632</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ68">
-        <v>1.130542372941818</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR68">
-        <v>-0.4704156966995328</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS68">
-        <v>-0.2678013321647512</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT68">
-        <v>-0.150009074060236</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU68">
-        <v>-0.5107106420686733</v>
+        <v>-1.315428906515805</v>
       </c>
       <c r="AV68">
         <v>-1.315428906515805</v>
@@ -9300,61 +8565,43 @@
       <c r="AZ68">
         <v>-1.315428906515805</v>
       </c>
-      <c r="BA68">
-        <v>-1.315428906515805</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.5488696681700105</v>
-      </c>
-      <c r="AH69">
-        <v>0.6463113775018655</v>
-      </c>
-      <c r="AI69">
-        <v>0.5405987680679587</v>
-      </c>
-      <c r="AJ69">
-        <v>0.2220039936166884</v>
-      </c>
-      <c r="AK69">
-        <v>0.7050075432870883</v>
-      </c>
       <c r="AL69">
-        <v>0.8587412280225181</v>
+        <v>-0.3673856517026394</v>
       </c>
       <c r="AM69">
-        <v>1.015723911283067</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN69">
-        <v>0.5328027202711724</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO69">
-        <v>0.7816402422690345</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP69">
-        <v>0.9162431236541266</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ69">
-        <v>0.8500686806944628</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR69">
-        <v>-0.1624766345027382</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS69">
-        <v>-0.1703934273738952</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT69">
-        <v>0.05197380972099097</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU69">
-        <v>-0.09538861511217078</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV69">
-        <v>-0.4166873101315929</v>
+        <v>-0.6454450625183199</v>
       </c>
       <c r="AW69">
         <v>-0.6454450625183199</v>
@@ -9368,64 +8615,43 @@
       <c r="AZ69">
         <v>-0.6454450625183199</v>
       </c>
-      <c r="BA69">
-        <v>-0.6454450625183199</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.5488696681700105</v>
-      </c>
-      <c r="AH70">
-        <v>0.6463113775018655</v>
-      </c>
-      <c r="AI70">
-        <v>0.5405987680679587</v>
-      </c>
-      <c r="AJ70">
-        <v>0.2220039936166884</v>
-      </c>
-      <c r="AK70">
-        <v>0.7050075432870883</v>
-      </c>
-      <c r="AL70">
-        <v>0.8587412280225181</v>
-      </c>
       <c r="AM70">
-        <v>1.015723911283067</v>
+        <v>-0.5539605659072464</v>
       </c>
       <c r="AN70">
-        <v>0.5328027202711724</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO70">
-        <v>0.7822113523727126</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP70">
-        <v>0.7342478430740584</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ70">
-        <v>0.5629136562862271</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR70">
-        <v>-0.06075391664805352</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS70">
-        <v>0.1219425411587309</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT70">
-        <v>0.2644904915490685</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU70">
-        <v>0.3472614192722574</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV70">
-        <v>0.1046135451433656</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW70">
-        <v>-0.1879686594642891</v>
+        <v>-0.3642442736871487</v>
       </c>
       <c r="AX70">
         <v>-0.3642442736871487</v>
@@ -9436,67 +8662,43 @@
       <c r="AZ70">
         <v>-0.3642442736871487</v>
       </c>
-      <c r="BA70">
-        <v>-0.3642442736871487</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.5488696681700105</v>
-      </c>
-      <c r="AH71">
-        <v>0.6463113775018655</v>
-      </c>
-      <c r="AI71">
-        <v>0.5405987680679587</v>
-      </c>
-      <c r="AJ71">
-        <v>0.2220039936166884</v>
-      </c>
-      <c r="AK71">
-        <v>0.7050075432870883</v>
-      </c>
-      <c r="AL71">
-        <v>0.8587412280225181</v>
-      </c>
-      <c r="AM71">
-        <v>1.015723911283067</v>
-      </c>
       <c r="AN71">
-        <v>0.5328027202711724</v>
+        <v>-0.6753579448573703</v>
       </c>
       <c r="AO71">
-        <v>0.3341862308644067</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP71">
-        <v>0.2075849893335687</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ71">
-        <v>0.3826810133150929</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR71">
-        <v>-0.527416572551914</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS71">
-        <v>0.1991269897618366</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT71">
-        <v>0.2537613818659423</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU71">
-        <v>0.4237387571593985</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV71">
-        <v>0.3050294404940246</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW71">
-        <v>0.1037056639830354</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX71">
-        <v>-0.06445993201673161</v>
+        <v>-0.2250721972476839</v>
       </c>
       <c r="AY71">
         <v>-0.2250721972476839</v>
@@ -9504,716 +8706,299 @@
       <c r="AZ71">
         <v>-0.2250721972476839</v>
       </c>
-      <c r="BA71">
-        <v>-0.2250721972476839</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.5488696681700105</v>
-      </c>
-      <c r="AH72">
-        <v>0.6463113775018655</v>
-      </c>
-      <c r="AI72">
-        <v>0.5405987680679587</v>
-      </c>
-      <c r="AJ72">
-        <v>0.2220039936166884</v>
-      </c>
-      <c r="AK72">
-        <v>0.7050075432870883</v>
-      </c>
-      <c r="AL72">
-        <v>0.8587412280225181</v>
-      </c>
-      <c r="AM72">
-        <v>1.015723911283067</v>
-      </c>
-      <c r="AN72">
-        <v>0.5328027202711724</v>
-      </c>
       <c r="AO72">
-        <v>0.3341862308644067</v>
+        <v>-0.1254548629052024</v>
       </c>
       <c r="AP72">
-        <v>0.2075849893335687</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ72">
-        <v>0.3826810133150929</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR72">
-        <v>-0.527416572551914</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS72">
-        <v>0.2623745466969467</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT72">
-        <v>0.2685425938263108</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU72">
-        <v>0.52023475871259</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV72">
-        <v>0.4463055845439925</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW72">
-        <v>0.2307757618606985</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX72">
-        <v>0.09974804946696736</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY72">
-        <v>0.04307960860288063</v>
+        <v>-0.00499463464311134</v>
       </c>
       <c r="AZ72">
         <v>-0.00499463464311134</v>
       </c>
-      <c r="BA72">
-        <v>-0.00499463464311134</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.7050075432870883</v>
-      </c>
-      <c r="AL73">
-        <v>0.8587412280225181</v>
-      </c>
-      <c r="AM73">
-        <v>1.015723911283067</v>
-      </c>
-      <c r="AN73">
-        <v>0.5328027202711724</v>
-      </c>
-      <c r="AO73">
-        <v>0.3341862308644067</v>
-      </c>
       <c r="AP73">
-        <v>0.2075849893335687</v>
+        <v>-0.02204484348764169</v>
       </c>
       <c r="AQ73">
-        <v>0.3826810133150929</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR73">
-        <v>-0.527416572551914</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS73">
-        <v>0.3428813742886376</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT73">
-        <v>0.3174104629930952</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU73">
-        <v>0.5438394591833884</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV73">
-        <v>0.5061112152548333</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW73">
-        <v>0.2369121668483558</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX73">
-        <v>0.1397045265759402</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY73">
-        <v>0.1377206874530827</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ73">
-        <v>0.1675816296148298</v>
-      </c>
-      <c r="BA73">
         <v>-0.1440085263791531</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.7050075432870883</v>
-      </c>
-      <c r="AL74">
-        <v>0.8587412280225181</v>
-      </c>
-      <c r="AM74">
-        <v>1.015723911283067</v>
-      </c>
-      <c r="AN74">
-        <v>0.5328027202711724</v>
-      </c>
-      <c r="AO74">
-        <v>0.3341862308644067</v>
-      </c>
-      <c r="AP74">
-        <v>0.2075849893335687</v>
-      </c>
       <c r="AQ74">
-        <v>0.3826810133150929</v>
+        <v>-0.2183000011856833</v>
       </c>
       <c r="AR74">
-        <v>-0.527416572551914</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS74">
-        <v>0.3417625854768005</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT74">
-        <v>0.317419114862318</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU74">
-        <v>0.5430710560096372</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV74">
-        <v>0.5393070525298924</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW74">
-        <v>0.2822095631932768</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX74">
-        <v>0.1244908591137204</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY74">
-        <v>0.1214863317924539</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ74">
-        <v>0.3385303686095114</v>
-      </c>
-      <c r="BA74">
-        <v>0.2249699068135271</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.7050075432870883</v>
-      </c>
-      <c r="AL75">
-        <v>0.8587412280225181</v>
-      </c>
-      <c r="AM75">
-        <v>1.015723911283067</v>
-      </c>
-      <c r="AN75">
-        <v>0.5328027202711724</v>
-      </c>
-      <c r="AO75">
-        <v>0.3341862308644067</v>
-      </c>
-      <c r="AP75">
-        <v>0.2075849893335687</v>
-      </c>
-      <c r="AQ75">
-        <v>0.3826810133150929</v>
-      </c>
       <c r="AR75">
-        <v>-0.527416572551914</v>
+        <v>0.01929777717000438</v>
       </c>
       <c r="AS75">
-        <v>-0.1843269331972792</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT75">
-        <v>-0.1973133589982837</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU75">
-        <v>-0.0873644101196632</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV75">
-        <v>-0.2476439673034349</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW75">
-        <v>0.2817932142556572</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX75">
-        <v>0.1648504995217053</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY75">
-        <v>0.1622789752361058</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ75">
-        <v>0.4663936762732419</v>
-      </c>
-      <c r="BA75">
-        <v>0.4000000000000057</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.7050075432870883</v>
-      </c>
-      <c r="AL76">
-        <v>0.8587412280225181</v>
-      </c>
-      <c r="AM76">
-        <v>1.015723911283067</v>
-      </c>
-      <c r="AN76">
-        <v>0.5328027202711724</v>
-      </c>
-      <c r="AO76">
-        <v>0.3341862308644067</v>
-      </c>
-      <c r="AP76">
-        <v>0.2075849893335687</v>
-      </c>
-      <c r="AQ76">
-        <v>0.3826810133150929</v>
-      </c>
-      <c r="AR76">
-        <v>-0.527416572551914</v>
-      </c>
       <c r="AS76">
-        <v>-0.1843269331972792</v>
+        <v>-0.1720212451487512</v>
       </c>
       <c r="AT76">
-        <v>-0.1973133589982837</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU76">
-        <v>-0.0873644101196632</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV76">
-        <v>-0.2476439673034349</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW76">
-        <v>0.3121257356490901</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX76">
-        <v>0.1657070316513085</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY76">
-        <v>0.1631387932247321</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ76">
-        <v>0.536958667948781</v>
-      </c>
-      <c r="BA76">
-        <v>0.4511483319588336</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.3341862308644067</v>
-      </c>
-      <c r="AP77">
-        <v>0.2075849893335687</v>
-      </c>
-      <c r="AQ77">
-        <v>0.3826810133150929</v>
-      </c>
-      <c r="AR77">
-        <v>-0.527416572551914</v>
-      </c>
-      <c r="AS77">
-        <v>-0.1843269331972792</v>
-      </c>
       <c r="AT77">
-        <v>-0.1973133589982837</v>
+        <v>-0.2983053057775705</v>
       </c>
       <c r="AU77">
-        <v>-0.0873644101196632</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV77">
-        <v>-0.2476439673034349</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW77">
-        <v>0.3332836563751727</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX77">
-        <v>0.1971093100426629</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY77">
-        <v>0.218424449518011</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ77">
-        <v>0.6984697933821735</v>
-      </c>
-      <c r="BA77">
-        <v>0.5750237167950587</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.3341862308644067</v>
-      </c>
-      <c r="AP78">
-        <v>0.2075849893335687</v>
-      </c>
-      <c r="AQ78">
-        <v>0.3826810133150929</v>
-      </c>
-      <c r="AR78">
-        <v>-0.527416572551914</v>
-      </c>
-      <c r="AS78">
-        <v>-0.1843269331972792</v>
-      </c>
-      <c r="AT78">
-        <v>-0.1973133589982837</v>
-      </c>
       <c r="AU78">
-        <v>-0.0873644101196632</v>
+        <v>-0.4636063773758591</v>
       </c>
       <c r="AV78">
-        <v>-0.2476439673034349</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW78">
-        <v>0.3337454255914167</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX78">
-        <v>0.259359523387289</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY78">
-        <v>0.2800655158905698</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ78">
-        <v>0.729694202344902</v>
-      </c>
-      <c r="BA78">
-        <v>0.6226534528507699</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.3341862308644067</v>
-      </c>
-      <c r="AP79">
-        <v>0.2075849893335687</v>
-      </c>
-      <c r="AQ79">
-        <v>0.3826810133150929</v>
-      </c>
-      <c r="AR79">
-        <v>-0.527416572551914</v>
-      </c>
-      <c r="AS79">
-        <v>-0.1843269331972792</v>
-      </c>
-      <c r="AT79">
-        <v>-0.1973133589982837</v>
-      </c>
-      <c r="AU79">
-        <v>-0.0873644101196632</v>
-      </c>
       <c r="AV79">
-        <v>-0.2476439673034349</v>
+        <v>-0.7389282715159963</v>
       </c>
       <c r="AW79">
-        <v>0.1281137465774094</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX79">
-        <v>0.007682053153739344</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY79">
-        <v>-0.01085671717353166</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ79">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA79">
-        <v>0.605709523522961</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.3341862308644067</v>
-      </c>
-      <c r="AP80">
-        <v>0.2075849893335687</v>
-      </c>
-      <c r="AQ80">
-        <v>0.3826810133150929</v>
-      </c>
-      <c r="AR80">
-        <v>-0.527416572551914</v>
-      </c>
-      <c r="AS80">
-        <v>-0.1843269331972792</v>
-      </c>
-      <c r="AT80">
-        <v>-0.1973133589982837</v>
-      </c>
-      <c r="AU80">
-        <v>-0.0873644101196632</v>
-      </c>
-      <c r="AV80">
-        <v>-0.2476439673034349</v>
-      </c>
       <c r="AW80">
-        <v>0.1281137465774094</v>
+        <v>-0.6157249585208873</v>
       </c>
       <c r="AX80">
-        <v>0.007682053153739344</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY80">
-        <v>-0.01085671717353166</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ80">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA80">
-        <v>0.6297219506583787</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>-0.1843269331972792</v>
-      </c>
-      <c r="AT81">
-        <v>-0.1973133589982837</v>
-      </c>
-      <c r="AU81">
-        <v>-0.0873644101196632</v>
-      </c>
-      <c r="AV81">
-        <v>-0.2476439673034349</v>
-      </c>
-      <c r="AW81">
-        <v>0.1281137465774094</v>
-      </c>
       <c r="AX81">
-        <v>0.007682053153739344</v>
+        <v>-0.6139325934248246</v>
       </c>
       <c r="AY81">
-        <v>-0.01085671717353166</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ81">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA81">
-        <v>0.688907477092755</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>-0.1843269331972792</v>
-      </c>
-      <c r="AT82">
-        <v>-0.1973133589982837</v>
-      </c>
-      <c r="AU82">
-        <v>-0.0873644101196632</v>
-      </c>
-      <c r="AV82">
-        <v>-0.2476439673034349</v>
-      </c>
-      <c r="AW82">
-        <v>0.1281137465774094</v>
-      </c>
-      <c r="AX82">
-        <v>0.007682053153739344</v>
-      </c>
       <c r="AY82">
-        <v>-0.01085671717353166</v>
+        <v>-0.5643351388413037</v>
       </c>
       <c r="AZ82">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA82">
-        <v>0.6890597288883242</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>-0.1843269331972792</v>
-      </c>
-      <c r="AT83">
-        <v>-0.1973133589982837</v>
-      </c>
-      <c r="AU83">
-        <v>-0.0873644101196632</v>
-      </c>
-      <c r="AV83">
-        <v>-0.2476439673034349</v>
-      </c>
-      <c r="AW83">
-        <v>0.1281137465774094</v>
-      </c>
-      <c r="AX83">
-        <v>0.007682053153739344</v>
-      </c>
-      <c r="AY83">
-        <v>-0.01085671717353166</v>
-      </c>
       <c r="AZ83">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA83">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>-0.1843269331972792</v>
-      </c>
-      <c r="AT84">
-        <v>-0.1973133589982837</v>
-      </c>
-      <c r="AU84">
-        <v>-0.0873644101196632</v>
-      </c>
-      <c r="AV84">
-        <v>-0.2476439673034349</v>
-      </c>
-      <c r="AW84">
-        <v>0.1281137465774094</v>
-      </c>
-      <c r="AX84">
-        <v>0.007682053153739344</v>
-      </c>
-      <c r="AY84">
-        <v>-0.01085671717353166</v>
-      </c>
-      <c r="AZ84">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA84">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.1281137465774094</v>
-      </c>
-      <c r="AX85">
-        <v>0.007682053153739344</v>
-      </c>
-      <c r="AY85">
-        <v>-0.01085671717353166</v>
-      </c>
-      <c r="AZ85">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA85">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.1281137465774094</v>
-      </c>
-      <c r="AX86">
-        <v>0.007682053153739344</v>
-      </c>
-      <c r="AY86">
-        <v>-0.01085671717353166</v>
-      </c>
-      <c r="AZ86">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA86">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.1281137465774094</v>
-      </c>
-      <c r="AX87">
-        <v>0.007682053153739344</v>
-      </c>
-      <c r="AY87">
-        <v>-0.01085671717353166</v>
-      </c>
-      <c r="AZ87">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA87">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.1281137465774094</v>
-      </c>
-      <c r="AX88">
-        <v>0.007682053153739344</v>
-      </c>
-      <c r="AY88">
-        <v>-0.01085671717353166</v>
-      </c>
-      <c r="AZ88">
-        <v>0.1697872170077176</v>
-      </c>
-      <c r="BA88">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.4743185562201461</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.4743185562201461</v>
+        <v>-0.6427276463591254</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9224,7 +9224,7 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG64">
-        <v>-0.3941836453765433</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH64">
         <v>-1.967214790670653</v>
@@ -9316,10 +9316,10 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG65">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH65">
-        <v>0.8801590087334432</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI65">
         <v>1.836112747457122</v>
@@ -9405,13 +9405,13 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG66">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH66">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI66">
-        <v>-3.629169871908772</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ66">
         <v>1.142507241736567</v>
@@ -9491,16 +9491,16 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG67">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH67">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI67">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ67">
-        <v>0.6879412097722906</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK67">
         <v>0.2778921468196529</v>
@@ -9574,19 +9574,19 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG68">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH68">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI68">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ68">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK68">
-        <v>1.095591413702294</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL68">
         <v>-2.336211685220064</v>
@@ -9654,22 +9654,22 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG69">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH69">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI69">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ69">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK69">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL69">
-        <v>0.3375818094670819</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM69">
         <v>0.03642954902896633</v>
@@ -9731,25 +9731,25 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG70">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH70">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI70">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ70">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK70">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL70">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM70">
-        <v>2.107773878883052</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN70">
         <v>4.623062809051376</v>
@@ -9805,28 +9805,28 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG71">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH71">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI71">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ71">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK71">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL71">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM71">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN71">
-        <v>-1.59627740363824</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO71">
         <v>-3.361711150938063</v>
@@ -9876,31 +9876,31 @@
         <v>1.015171985964854</v>
       </c>
       <c r="AG72">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH72">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI72">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ72">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK72">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL72">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM72">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN72">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO72">
-        <v>-0.2429958482083094</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP72">
         <v>-1.432989117992093</v>
@@ -9944,34 +9944,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.5980655322198769</v>
+        <v>0.6868530841883254</v>
       </c>
       <c r="AH73">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI73">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ73">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK73">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL73">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM73">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN73">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO73">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP73">
-        <v>-0.5009691804783216</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ73">
         <v>-2.851410521811431</v>
@@ -10011,38 +10011,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.5980655322198769</v>
-      </c>
       <c r="AH74">
-        <v>0.3857837669426782</v>
+        <v>0.4300304350681355</v>
       </c>
       <c r="AI74">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ74">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK74">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL74">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM74">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN74">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO74">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP74">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ74">
-        <v>0.6399165487990643</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR74">
         <v>3.933557394002079</v>
@@ -10079,38 +10076,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.3857837669426782</v>
-      </c>
       <c r="AI75">
-        <v>0.03839291085439065</v>
+        <v>0.4703076241168699</v>
       </c>
       <c r="AJ75">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK75">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL75">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM75">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN75">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO75">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP75">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ75">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR75">
-        <v>-1.082392568246973</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS75">
         <v>0.2329359358994338</v>
@@ -10144,38 +10138,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.03839291085439065</v>
-      </c>
       <c r="AJ76">
-        <v>0.6478200790678923</v>
+        <v>0.7031110047907513</v>
       </c>
       <c r="AK76">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL76">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM76">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN76">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO76">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP76">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ76">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR76">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS76">
-        <v>-1.253192088351895</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT76">
         <v>0.4324506349439758</v>
@@ -10206,38 +10197,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.6478200790678923</v>
-      </c>
       <c r="AK77">
-        <v>0.3188703070552411</v>
+        <v>0.4693111656850117</v>
       </c>
       <c r="AL77">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM77">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN77">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO77">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP77">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ77">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR77">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS77">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT77">
-        <v>-1.225249013415265</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU77">
         <v>-1.721673722292465</v>
@@ -10265,38 +10253,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.3188703070552411</v>
-      </c>
       <c r="AL78">
-        <v>0.2781184132842724</v>
+        <v>0.1543602323375642</v>
       </c>
       <c r="AM78">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN78">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO78">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP78">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ78">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR78">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS78">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT78">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU78">
-        <v>-0.1672491925858992</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV78">
         <v>2.712662502476618</v>
@@ -10321,38 +10306,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.2781184132842724</v>
-      </c>
       <c r="AM79">
-        <v>0.2983801076996732</v>
+        <v>0.1276027198113681</v>
       </c>
       <c r="AN79">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO79">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP79">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ79">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR79">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS79">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT79">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU79">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV79">
-        <v>-1.315428906515805</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW79">
         <v>-2.00812900028761</v>
@@ -10374,38 +10356,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.2983801076996732</v>
-      </c>
       <c r="AN80">
-        <v>0.2438871427043123</v>
+        <v>0.4135148830681363</v>
       </c>
       <c r="AO80">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP80">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ80">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR80">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS80">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT80">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU80">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV80">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW80">
-        <v>-0.6454450625183199</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX80">
         <v>-0.346469331090276</v>
@@ -10424,38 +10403,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.2438871427043123</v>
-      </c>
       <c r="AO81">
-        <v>-0.5412783514073014</v>
+        <v>-0.08642064339461526</v>
       </c>
       <c r="AP81">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ81">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR81">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS81">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT81">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU81">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV81">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW81">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX81">
-        <v>-0.3642442736871487</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY81">
         <v>1.043712238889796</v>
@@ -10471,38 +10447,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>-0.5412783514073014</v>
-      </c>
       <c r="AP82">
-        <v>-0.2672519317680198</v>
+        <v>-0.6461782080397229</v>
       </c>
       <c r="AQ82">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR82">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS82">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT82">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU82">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV82">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW82">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX82">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY82">
-        <v>-0.2250721972476839</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ82">
         <v>0.5275848603473889</v>
@@ -10515,38 +10488,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>-0.2672519317680198</v>
-      </c>
       <c r="AQ83">
-        <v>-0.2087915427356011</v>
+        <v>-0.4022595478482019</v>
       </c>
       <c r="AR83">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS83">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT83">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU83">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV83">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW83">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX83">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY83">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ83">
-        <v>-0.00499463464311134</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA83">
         <v>-2.073458279789094</v>
@@ -10556,253 +10526,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>-0.2087915427356011</v>
-      </c>
       <c r="AR84">
-        <v>-0.3959289614101706</v>
+        <v>0.08502695069190742</v>
       </c>
       <c r="AS84">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT84">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU84">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV84">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW84">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX84">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY84">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ84">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA84">
-        <v>-0.1440085263791531</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>-0.3959289614101706</v>
-      </c>
       <c r="AS85">
-        <v>-0.5095735814982562</v>
+        <v>-0.391851919140764</v>
       </c>
       <c r="AT85">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU85">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV85">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW85">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX85">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY85">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ85">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA85">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>-0.5095735814982562</v>
-      </c>
       <c r="AT86">
-        <v>-0.7382156904579873</v>
+        <v>-0.4536791551100736</v>
       </c>
       <c r="AU86">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV86">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW86">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX86">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY86">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ86">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA86">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>-0.7382156904579873</v>
-      </c>
       <c r="AU87">
-        <v>-0.641213779832323</v>
+        <v>-0.9865065778580956</v>
       </c>
       <c r="AV87">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW87">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX87">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY87">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ87">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA87">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>-0.641213779832323</v>
-      </c>
       <c r="AV88">
-        <v>-0.3983085965629584</v>
+        <v>-0.362728707909713</v>
       </c>
       <c r="AW88">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX88">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY88">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ88">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA88">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>-0.3983085965629584</v>
-      </c>
       <c r="AW89">
-        <v>-1.075874609628397</v>
+        <v>-0.6603918655239497</v>
       </c>
       <c r="AX89">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY89">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ89">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA89">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>-1.075874609628397</v>
-      </c>
       <c r="AX90">
-        <v>-0.8027190077077648</v>
+        <v>-1.07664106387928</v>
       </c>
       <c r="AY90">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ90">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA90">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>-0.8027190077077648</v>
-      </c>
       <c r="AY91">
-        <v>-0.5941471988218978</v>
+        <v>-0.6690268876203433</v>
       </c>
       <c r="AZ91">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA91">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>-0.5941471988218978</v>
-      </c>
       <c r="AZ92">
-        <v>-0.1888533508314267</v>
+        <v>-0.5090375453879602</v>
       </c>
       <c r="BA92">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>-0.1888533508314267</v>
-      </c>
       <c r="BA93">
-        <v>-0.5939799733495817</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>-0.5939799733495817</v>
+        <v>-0.4294655397123265</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="BA2">
         <v>0.7596024993684409</v>
       </c>
+      <c r="BB2">
+        <v>0.7596024993684409</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="BA3">
         <v>5.398981879140436</v>
       </c>
+      <c r="BB3">
+        <v>5.398981879140436</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1015,8 +1024,11 @@
       <c r="BA4">
         <v>-5.469777829091811</v>
       </c>
+      <c r="BB4">
+        <v>-5.469777829091811</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1176,8 +1188,11 @@
       <c r="BA5">
         <v>-0.5016308114541062</v>
       </c>
+      <c r="BB5">
+        <v>-0.5016308114541062</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1337,8 +1352,11 @@
       <c r="BA6">
         <v>-0.6214054032250829</v>
       </c>
+      <c r="BB6">
+        <v>-0.6214054032250829</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1498,8 +1516,11 @@
       <c r="BA7">
         <v>-1.41027180704431</v>
       </c>
+      <c r="BB7">
+        <v>-1.41027180704431</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1659,8 +1680,11 @@
       <c r="BA8">
         <v>-0.7919227738455277</v>
       </c>
+      <c r="BB8">
+        <v>-0.7919227738455277</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="BA9">
         <v>0.8281781605252121</v>
       </c>
+      <c r="BB9">
+        <v>0.8281781605252121</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1981,8 +2008,11 @@
       <c r="BA10">
         <v>0.6333580932638085</v>
       </c>
+      <c r="BB10">
+        <v>0.6333580932638085</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2142,8 +2172,11 @@
       <c r="BA11">
         <v>-1.871721946158218</v>
       </c>
+      <c r="BB11">
+        <v>-1.871721946158218</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2300,8 +2333,11 @@
       <c r="BA12">
         <v>6.947074551031477</v>
       </c>
+      <c r="BB12">
+        <v>6.947074551031477</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2458,8 +2494,11 @@
       <c r="BA13">
         <v>-0.5538313209713124</v>
       </c>
+      <c r="BB13">
+        <v>-0.5538313209713124</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2613,8 +2652,11 @@
       <c r="BA14">
         <v>-2.926189405619382</v>
       </c>
+      <c r="BB14">
+        <v>-2.926189405619382</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2768,8 +2810,11 @@
       <c r="BA15">
         <v>9.498197854786355</v>
       </c>
+      <c r="BB15">
+        <v>9.498197854786355</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2920,8 +2965,11 @@
       <c r="BA16">
         <v>-0.4994768307962829</v>
       </c>
+      <c r="BB16">
+        <v>-0.4994768307962829</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -3072,8 +3120,11 @@
       <c r="BA17">
         <v>-0.6902935135373696</v>
       </c>
+      <c r="BB17">
+        <v>-0.6902935135373696</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3221,8 +3272,11 @@
       <c r="BA18">
         <v>1.660952585620919</v>
       </c>
+      <c r="BB18">
+        <v>1.660952585620919</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="BA19">
         <v>0.5318249089792459</v>
       </c>
+      <c r="BB19">
+        <v>0.5318249089792459</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3516,8 +3573,11 @@
       <c r="BA20">
         <v>0.6320478207229741</v>
       </c>
+      <c r="BB20">
+        <v>0.6320478207229741</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3662,8 +3722,11 @@
       <c r="BA21">
         <v>-0.1274490368921875</v>
       </c>
+      <c r="BB21">
+        <v>-0.1274490368921875</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3805,8 +3868,11 @@
       <c r="BA22">
         <v>-0.6653180828667331</v>
       </c>
+      <c r="BB22">
+        <v>-0.6653180828667331</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3948,8 +4014,11 @@
       <c r="BA23">
         <v>-2.768682804727675</v>
       </c>
+      <c r="BB23">
+        <v>-2.768682804727675</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -4088,8 +4157,11 @@
       <c r="BA24">
         <v>2.972562358782</v>
       </c>
+      <c r="BB24">
+        <v>2.972562358782</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4228,8 +4300,11 @@
       <c r="BA25">
         <v>1.814509864363558</v>
       </c>
+      <c r="BB25">
+        <v>1.814509864363558</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4365,8 +4440,11 @@
       <c r="BA26">
         <v>0.7290697448430592</v>
       </c>
+      <c r="BB26">
+        <v>0.7290697448430592</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4502,8 +4580,11 @@
       <c r="BA27">
         <v>4.434377037602189</v>
       </c>
+      <c r="BB27">
+        <v>4.434377037602189</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4636,8 +4717,11 @@
       <c r="BA28">
         <v>-3.830674548307485</v>
       </c>
+      <c r="BB28">
+        <v>-3.830674548307485</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4770,8 +4854,11 @@
       <c r="BA29">
         <v>-0.3546604117736365</v>
       </c>
+      <c r="BB29">
+        <v>-0.3546604117736365</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4901,8 +4988,11 @@
       <c r="BA30">
         <v>0.5841110884116603</v>
       </c>
+      <c r="BB30">
+        <v>0.5841110884116603</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -5032,8 +5122,11 @@
       <c r="BA31">
         <v>0.3311457281599957</v>
       </c>
+      <c r="BB31">
+        <v>0.3311457281599957</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5160,8 +5253,11 @@
       <c r="BA32">
         <v>-0.983338854947732</v>
       </c>
+      <c r="BB32">
+        <v>-0.983338854947732</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5288,8 +5384,11 @@
       <c r="BA33">
         <v>0.0367937104471423</v>
       </c>
+      <c r="BB33">
+        <v>0.0367937104471423</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5413,8 +5512,11 @@
       <c r="BA34">
         <v>2.049812641278834</v>
       </c>
+      <c r="BB34">
+        <v>2.049812641278834</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5538,8 +5640,11 @@
       <c r="BA35">
         <v>2.087453263562125</v>
       </c>
+      <c r="BB35">
+        <v>2.087453263562125</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5660,8 +5765,11 @@
       <c r="BA36">
         <v>-1.438164479066856</v>
       </c>
+      <c r="BB36">
+        <v>-1.438164479066856</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5782,8 +5890,11 @@
       <c r="BA37">
         <v>-0.02684958208732269</v>
       </c>
+      <c r="BB37">
+        <v>-0.02684958208732269</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5901,8 +6012,11 @@
       <c r="BA38">
         <v>0.8237845450787233</v>
       </c>
+      <c r="BB38">
+        <v>0.8237845450787233</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -6020,8 +6134,11 @@
       <c r="BA39">
         <v>2.86126545641612</v>
       </c>
+      <c r="BB39">
+        <v>2.86126545641612</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -6136,8 +6253,11 @@
       <c r="BA40">
         <v>0.5069532644027532</v>
       </c>
+      <c r="BB40">
+        <v>0.5069532644027532</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6252,8 +6372,11 @@
       <c r="BA41">
         <v>-0.2174083661145261</v>
       </c>
+      <c r="BB41">
+        <v>-0.2174083661145261</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6365,8 +6488,11 @@
       <c r="BA42">
         <v>0.1045745676356802</v>
       </c>
+      <c r="BB42">
+        <v>0.1045745676356802</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6478,8 +6604,11 @@
       <c r="BA43">
         <v>0.4936918743079417</v>
       </c>
+      <c r="BB43">
+        <v>0.4936918743079417</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6588,8 +6717,11 @@
       <c r="BA44">
         <v>1.322625689988016</v>
       </c>
+      <c r="BB44">
+        <v>1.322625689988016</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6698,8 +6830,11 @@
       <c r="BA45">
         <v>0.6899772607160202</v>
       </c>
+      <c r="BB45">
+        <v>0.6899772607160202</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6805,8 +6940,11 @@
       <c r="BA46">
         <v>1.240850467000882</v>
       </c>
+      <c r="BB46">
+        <v>1.240850467000882</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6912,8 +7050,11 @@
       <c r="BA47">
         <v>2.6</v>
       </c>
+      <c r="BB47">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -7016,8 +7157,11 @@
       <c r="BA48">
         <v>-0.9</v>
       </c>
+      <c r="BB48">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -7120,8 +7264,11 @@
       <c r="BA49">
         <v>0.4</v>
       </c>
+      <c r="BB49">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7221,8 +7368,11 @@
       <c r="BA50">
         <v>0.1</v>
       </c>
+      <c r="BB50">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7322,8 +7472,11 @@
       <c r="BA51">
         <v>4.305581231918552</v>
       </c>
+      <c r="BB51">
+        <v>4.305581231918552</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7420,8 +7573,11 @@
       <c r="BA52">
         <v>-4.290231943195352</v>
       </c>
+      <c r="BB52">
+        <v>-4.290231943195352</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7515,8 +7671,11 @@
       <c r="BA53">
         <v>-1.294763502326944</v>
       </c>
+      <c r="BB53">
+        <v>-1.294763502326944</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7607,8 +7766,11 @@
       <c r="BA54">
         <v>3.727166552773809</v>
       </c>
+      <c r="BB54">
+        <v>3.727166552773809</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7696,8 +7858,11 @@
       <c r="BA55">
         <v>-0.07597546477697392</v>
       </c>
+      <c r="BB55">
+        <v>-0.07597546477697392</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7782,8 +7947,11 @@
       <c r="BA56">
         <v>1.620116340063873</v>
       </c>
+      <c r="BB56">
+        <v>1.620116340063873</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7865,8 +8033,11 @@
       <c r="BA57">
         <v>-3.620177172843626</v>
       </c>
+      <c r="BB57">
+        <v>-3.620177172843626</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7945,8 +8116,11 @@
       <c r="BA58">
         <v>-0.9596300199833507</v>
       </c>
+      <c r="BB58">
+        <v>-0.9596300199833507</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -8022,8 +8196,11 @@
       <c r="BA59">
         <v>3.509382378526155</v>
       </c>
+      <c r="BB59">
+        <v>3.509382378526155</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -8096,8 +8273,11 @@
       <c r="BA60">
         <v>-3.103464835402306</v>
       </c>
+      <c r="BB60">
+        <v>-3.103464835402306</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8167,8 +8347,11 @@
       <c r="BA61">
         <v>-0.9738690852321383</v>
       </c>
+      <c r="BB61">
+        <v>-0.9738690852321383</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8235,8 +8418,11 @@
       <c r="BA62">
         <v>-3.206836580208446</v>
       </c>
+      <c r="BB62">
+        <v>-3.206836580208446</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8300,8 +8486,11 @@
       <c r="BA63">
         <v>1.5011358099934</v>
       </c>
+      <c r="BB63">
+        <v>1.5011358099934</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8362,8 +8551,11 @@
       <c r="BA64">
         <v>-0.5164324031961769</v>
       </c>
+      <c r="BB64">
+        <v>-0.5164324031961769</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8421,8 +8613,11 @@
       <c r="BA65">
         <v>-0.7267585812813877</v>
       </c>
+      <c r="BB65">
+        <v>-0.7267585812813877</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8477,8 +8672,11 @@
       <c r="BA66">
         <v>-1.863476264789497</v>
       </c>
+      <c r="BB66">
+        <v>-1.863476264789497</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8530,8 +8728,11 @@
       <c r="BA67">
         <v>0.5061198669764195</v>
       </c>
+      <c r="BB67">
+        <v>0.5061198669764195</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8580,8 +8781,11 @@
       <c r="BA68">
         <v>-1.844723754442185</v>
       </c>
+      <c r="BB68">
+        <v>-1.844723754442185</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8627,8 +8831,11 @@
       <c r="BA69">
         <v>-0.3113146714536583</v>
       </c>
+      <c r="BB69">
+        <v>-0.3113146714536583</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8671,8 +8878,11 @@
       <c r="BA70">
         <v>0.8443262641745406</v>
       </c>
+      <c r="BB70">
+        <v>0.8443262641745406</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8712,8 +8922,11 @@
       <c r="BA71">
         <v>0.1899266166843745</v>
       </c>
+      <c r="BB71">
+        <v>0.2255501838065186</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8750,8 +8963,11 @@
       <c r="BA72">
         <v>-2.073458279789094</v>
       </c>
+      <c r="BB72">
+        <v>-1.137044400346582</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8785,8 +9001,11 @@
       <c r="BA73">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB73">
+        <v>-0.4792091214565772</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8817,8 +9036,11 @@
       <c r="BA74">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB74">
+        <v>-0.5302962882008586</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8846,8 +9068,11 @@
       <c r="BA75">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB75">
+        <v>-0.5302962882008586</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8872,8 +9097,11 @@
       <c r="BA76">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB76">
+        <v>-0.5302962882008586</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8895,8 +9123,11 @@
       <c r="BA77">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB77">
+        <v>-0.5302962882008586</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8915,8 +9146,11 @@
       <c r="BA78">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB78">
+        <v>-0.5302962882008586</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8932,8 +9166,11 @@
       <c r="BA79">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB79">
+        <v>-0.5302962882008586</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8946,8 +9183,11 @@
       <c r="BA80">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB80">
+        <v>-0.5302962882008586</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8957,13 +9197,27 @@
       <c r="BA81">
         <v>-0.4294655397123265</v>
       </c>
+      <c r="BB81">
+        <v>-0.5302962882008586</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>-0.4294655397123265</v>
+      </c>
+      <c r="BB82">
+        <v>-0.5302962882008586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>-0.5302962882008586</v>
       </c>
     </row>
   </sheetData>
